--- a/Location Details/E Cedar St , Zionsville, IN 46077_restaurants.xlsx
+++ b/Location Details/E Cedar St , Zionsville, IN 46077_restaurants.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -486,7 +486,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -510,7 +510,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -519,22 +519,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Axum Ethiopian Restaurant</t>
+          <t>Arni's Restaurant - Indianapolis</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="F4" t="n">
-        <v>413</v>
+        <v>794</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -543,22 +543,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BRU Burger Bar</t>
+          <t>Axum Ethiopian Restaurant</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="F5" t="n">
-        <v>4148</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -567,22 +567,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Bluebeard</t>
+          <t>BRU Burger Bar</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="F6" t="n">
-        <v>1366</v>
+        <v>4150</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -591,22 +591,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Bonefish Grill</t>
+          <t>Bluebeard</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="F7" t="n">
-        <v>1081</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -615,7 +615,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Bosphorus Istanbul Cafe</t>
+          <t>Bonefish Grill</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -625,12 +625,12 @@
         <v>4.5</v>
       </c>
       <c r="F8" t="n">
-        <v>1271</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -639,22 +639,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Burritos &amp; Beer Restaurant, LLC</t>
+          <t>Bosphorus Istanbul Cafe</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="F9" t="n">
-        <v>329</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -663,22 +663,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Canal Bistro</t>
+          <t>Burritos &amp; Beer Restaurant, LLC</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="F10" t="n">
-        <v>889</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -687,22 +687,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Charleston's Restaurant</t>
+          <t>Canal Bistro</t>
         </is>
       </c>
       <c r="D11" t="n">
         <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="F11" t="n">
-        <v>1457</v>
+        <v>890</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -711,22 +711,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Charlie Browns Pancake &amp; Steak House</t>
+          <t>Charleston's Restaurant</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
         <v>4.5</v>
       </c>
       <c r="F12" t="n">
-        <v>1268</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -735,22 +735,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Cooper's Hawk Winery &amp; Restaurant</t>
+          <t>City Barbeque and Catering</t>
         </is>
       </c>
       <c r="D13" t="n">
         <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="F13" t="n">
-        <v>1498</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -759,20 +759,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Courses Restaurant</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+          <t>Cooper's Hawk Winery &amp; Restaurant</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
       <c r="E14" t="n">
         <v>4.6</v>
       </c>
       <c r="F14" t="n">
-        <v>38</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -781,22 +783,20 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Cracker Barrel Old Country Store</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>2</v>
-      </c>
+          <t>Courses Restaurant</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="F15" t="n">
-        <v>2749</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -805,22 +805,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Delicia</t>
+          <t>Cracker Barrel Old Country Store</t>
         </is>
       </c>
       <c r="D16" t="n">
         <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="F16" t="n">
-        <v>591</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -935,12 +935,12 @@
         <v>4.4</v>
       </c>
       <c r="F21" t="n">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -973,22 +973,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Iaria's Italian Restaurant</t>
+          <t>IHOP</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="F23" t="n">
-        <v>1133</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -997,22 +997,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Iron Skillet Restaurant</t>
+          <t>Iaria's Italian Restaurant</t>
         </is>
       </c>
       <c r="D24" t="n">
         <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="F24" t="n">
-        <v>470</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1021,22 +1021,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Livery</t>
+          <t>Iron Skillet Restaurant</t>
         </is>
       </c>
       <c r="D25" t="n">
         <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="F25" t="n">
-        <v>1490</v>
+        <v>470</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1045,22 +1045,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Maggiano's Little Italy</t>
+          <t>Livery</t>
         </is>
       </c>
       <c r="D26" t="n">
         <v>2</v>
       </c>
       <c r="E26" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="F26" t="n">
-        <v>2255</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1069,22 +1069,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Major Restaurant</t>
+          <t>Maggiano's Little Italy</t>
         </is>
       </c>
       <c r="D27" t="n">
         <v>2</v>
       </c>
       <c r="E27" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="F27" t="n">
-        <v>427</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1093,22 +1093,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Mama Carolla's</t>
+          <t>Major Restaurant</t>
         </is>
       </c>
       <c r="D28" t="n">
         <v>2</v>
       </c>
       <c r="E28" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="F28" t="n">
-        <v>1639</v>
+        <v>427</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1117,22 +1117,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Meridian Restaurant &amp; Bar</t>
+          <t>Mama Carolla's</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E29" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="F29" t="n">
-        <v>365</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1141,22 +1141,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Mesh</t>
+          <t>Meridian Restaurant &amp; Bar</t>
         </is>
       </c>
       <c r="D30" t="n">
         <v>3</v>
       </c>
       <c r="E30" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="F30" t="n">
-        <v>1150</v>
+        <v>365</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1165,17 +1165,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Mimi Blue Restaurants</t>
+          <t>Mesh</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E31" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="F31" t="n">
-        <v>1053</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="32">
@@ -1189,22 +1189,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Nada</t>
+          <t>Mimi Blue Restaurants</t>
         </is>
       </c>
       <c r="D32" t="n">
         <v>2</v>
       </c>
       <c r="E32" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="F32" t="n">
-        <v>1952</v>
+        <v>666</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1213,20 +1213,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Nesso</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
+          <t>Nada</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>2</v>
+      </c>
       <c r="E33" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="F33" t="n">
-        <v>219</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1235,22 +1237,20 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Oakleys Bistro</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>3</v>
-      </c>
+          <t>Nesso</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
         <v>4.7</v>
       </c>
       <c r="F34" t="n">
-        <v>273</v>
+        <v>219</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1290,15 +1290,15 @@
         <v>2</v>
       </c>
       <c r="E36" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="F36" t="n">
-        <v>3333</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1387,12 +1387,12 @@
         <v>4.6</v>
       </c>
       <c r="F40" t="n">
-        <v>1709</v>
+        <v>969</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1473,22 +1473,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>TURF Catering + Kitchen</t>
+          <t>The Capital Grille</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E44" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="F44" t="n">
-        <v>91</v>
+        <v>821</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1497,22 +1497,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>The Capital Grille</t>
+          <t>The Cheesecake Factory</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E45" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="F45" t="n">
-        <v>820</v>
+        <v>3306</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1521,22 +1521,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>The Cheesecake Factory</t>
+          <t>The Italian House on Park</t>
         </is>
       </c>
       <c r="D46" t="n">
         <v>2</v>
       </c>
       <c r="E46" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="F46" t="n">
-        <v>3306</v>
+        <v>544</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1545,22 +1545,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>The Italian House on Park</t>
+          <t>The Oceanaire Seafood Room</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E47" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="F47" t="n">
-        <v>544</v>
+        <v>975</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1569,22 +1569,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>The Oceanaire Seafood Room</t>
+          <t>The Rathskeller</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E48" t="n">
         <v>4.5</v>
       </c>
       <c r="F48" t="n">
-        <v>975</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1593,22 +1593,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>The Old Spaghetti Factory</t>
+          <t>Tijuana Flats - Fishers</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="F49" t="n">
-        <v>2772</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1617,22 +1617,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>The Rathskeller</t>
+          <t>Tinker Street Restaurant</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E50" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="F50" t="n">
-        <v>2685</v>
+        <v>702</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1641,22 +1641,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Tinker Street Restaurant</t>
+          <t>Twin Peaks Restaurant</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E51" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="F51" t="n">
-        <v>702</v>
+        <v>3906</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1665,22 +1665,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Twin Peaks Restaurant</t>
+          <t>Weber Grill Restaurant</t>
         </is>
       </c>
       <c r="D52" t="n">
         <v>2</v>
       </c>
       <c r="E52" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="F52" t="n">
-        <v>3904</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1689,22 +1689,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Weber Grill Restaurant</t>
+          <t>Yard House</t>
         </is>
       </c>
       <c r="D53" t="n">
         <v>2</v>
       </c>
       <c r="E53" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="F53" t="n">
-        <v>2307</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1713,65 +1713,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Yard House</t>
+          <t>Yats</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="F54" t="n">
-        <v>2326</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>OPERATIONAL</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Yats</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
-        <v>1</v>
-      </c>
-      <c r="E55" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="F55" t="n">
         <v>1279</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>OPERATIONAL</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Yats Fishers</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
-        <v>1</v>
-      </c>
-      <c r="E56" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="F56" t="n">
-        <v>856</v>
       </c>
     </row>
   </sheetData>
